--- a/biology/Botanique/James_Bateman/James_Bateman.xlsx
+++ b/biology/Botanique/James_Bateman/James_Bateman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Bateman est un botaniste britannique, né le 18 juillet 1811 à Redivals et mort le 27 novembre 1897 à Springbank, qui s'est notamment spécialisé dans les orchidées.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils de John Bateman et d’Elizabeth née Holt. Il obtient son Bachelor of Arts en 1834 et son Master of Arts en 1845, tous deux au Magdalen College de l'université d'Oxford. Il épouse Maria Sybilla Warburton le 24 avril 1838, union dont il aura quatre enfants.
 Membre de la Linnean Society of London, de la Royal Society (1838) et de la Royal Horticultural Society, il est l’auteur de nombreux travaux sur les orchidées. Il a notamment publié : 
